--- a/lutronic/codebase/extcore/jsp/document/cover/DMR.xlsx
+++ b/lutronic/codebase/extcore/jsp/document/cover/DMR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UserK\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60eebabad7dad888/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_613A1E4A7153F3B70E21CEB0859E9AD01CB75536" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CD6BBFE-5097-4099-9DEA-866A4BF18AAC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,61 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>문서번호</t>
+  </si>
+  <si>
+    <t>개정번호</t>
+  </si>
+  <si>
+    <t>개정일자</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>서명</t>
+  </si>
+  <si>
+    <t>이름(팀)</t>
+  </si>
+  <si>
+    <t>결재완료일</t>
+  </si>
   <si>
     <t xml:space="preserve">Project Code : </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>제품표준서
-(DMR, Device Master Record)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개정번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개정일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,10 +141,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -177,22 +169,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -202,42 +179,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -254,6 +222,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,63 +506,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+    </row>
+    <row r="7" spans="1:15" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -583,83 +563,64 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="4" t="s">
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A6:F7"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;LQF-705-19(Rev0)&amp;CLutronic Corporation&amp;R1/4</oddFooter>
+    <oddFooter>&amp;CLutronic Corporation</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/lutronic/codebase/extcore/jsp/document/cover/DMR.xlsx
+++ b/lutronic/codebase/extcore/jsp/document/cover/DMR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60eebabad7dad888/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_613A1E4A7153F3B70E21CEB0859E9AD01CB75536" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CD6BBFE-5097-4099-9DEA-866A4BF18AAC}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_613A1E4A7153F3B70E21CEB0859E9AD01CB75536" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F56E87E7-FF63-43A6-B7BB-F05DCA61FFE9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6330" yWindow="2535" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,6 +206,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -241,6 +244,14 @@
 </file>
 
 <file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -507,73 +518,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:O16"/>
+  <dimension ref="A3:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="11.375" customWidth="1"/>
     <col min="7" max="7" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="6" t="s">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
+    <row r="7" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -581,39 +608,30 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:F7"/>
+  <mergeCells count="2">
+    <mergeCell ref="A5:F6"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
